--- a/Client/ExcelConfig/Excel/LevelupMBoom.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupMBoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="23955" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,13 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -100,29 +93,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,13 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -167,13 +130,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -197,12 +153,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -222,6 +207,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,10 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1132,21 +1132,21 @@
         <v>30</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="E5" s="1">
         <v>300</v>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D6" s="1">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>300</v>
       </c>
       <c r="F7" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="1">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="E8" s="1">
         <v>300</v>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="E9" s="1">
         <v>300</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1275,16 +1275,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D11" s="1">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="E11" s="1">
         <v>300</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
+        <v>550</v>
+      </c>
+      <c r="D12" s="1">
         <v>600</v>
-      </c>
-      <c r="D12" s="1">
-        <v>660</v>
       </c>
       <c r="E12" s="1">
         <v>300</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>300</v>
       </c>
       <c r="F13" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1344,24 +1344,47 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>600</v>
+      </c>
+      <c r="D14" s="1">
+        <v>660</v>
+      </c>
+      <c r="E14" s="1">
+        <v>300</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>700</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>720</v>
       </c>
-      <c r="E14" s="1">
-        <v>300</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E15" s="1">
+        <v>300</v>
+      </c>
+      <c r="F15" s="1">
         <v>50</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>1</v>
       </c>
     </row>
